--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>Stage</t>
   </si>
@@ -281,6 +281,22 @@
   </si>
   <si>
     <t>Magnesia Crystal(per)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biting Box</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milled Magnesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Biting Box(per)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milled Magnesia(per)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -360,9 +376,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -595,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1001"/>
+  <dimension ref="A1:R1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -608,12 +621,12 @@
     <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="2.5703125" style="2" customWidth="1"/>
-    <col min="6" max="16" width="17.140625" style="2" customWidth="1"/>
-    <col min="17" max="27" width="8.7109375" style="2" customWidth="1"/>
-    <col min="28" max="16384" width="14.42578125" style="2"/>
+    <col min="6" max="18" width="17.140625" style="2" customWidth="1"/>
+    <col min="19" max="29" width="8.7109375" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13.5" customHeight="1">
+    <row r="1" spans="1:18" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,37 +640,43 @@
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1">
+    <row r="2" spans="1:18" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -671,14 +690,14 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>180</v>
       </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
       <c r="J2" s="2">
         <v>0</v>
       </c>
@@ -689,19 +708,25 @@
         <v>0</v>
       </c>
       <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
         <v>1</v>
       </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
       <c r="P2" s="2">
         <v>0</v>
       </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" ht="13.5" customHeight="1">
+    <row r="3" spans="1:18" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -709,19 +734,19 @@
         <v>12</v>
       </c>
       <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
       <c r="H3" s="2">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
@@ -730,22 +755,28 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="13.5" customHeight="1">
+    <row r="4" spans="1:18" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -762,45 +793,51 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>2660</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
         <v>8</v>
       </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
         <v>2</v>
       </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
         <v>8</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Q4" s="2">
         <v>21</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:16" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:18" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1"/>
     <row r="18" ht="13.5" customHeight="1"/>
     <row r="19" ht="13.5" customHeight="1"/>
@@ -1798,20 +1835,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="2" customWidth="1"/>
-    <col min="3" max="13" width="21.28515625" style="2" customWidth="1"/>
+    <col min="3" max="15" width="21.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,180 +1856,210 @@
         <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="9">
-        <f>Data!F2/Data!D2</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <f>Data!G2/Data!D2</f>
+      <c r="C2" s="4">
+        <f>Data!F2/Data!$D2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <f>Data!G2/Data!$D2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <f>Data!H2/Data!$D2</f>
         <v>1</v>
       </c>
-      <c r="E2" s="2">
-        <f>Data!H2/Data!D2</f>
+      <c r="F2" s="4">
+        <f>Data!I2/Data!$D2</f>
         <v>180</v>
       </c>
-      <c r="F2" s="4">
-        <f>Data!I2/Data!D2</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <f>Data!J2/Data!D2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <f>Data!K2/Data!D2</f>
+      <c r="G2" s="4">
+        <f>Data!J2/Data!$D2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <f>Data!K2/Data!$D2</f>
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <f>Data!N2/Data!D2</f>
+        <f>Data!L2/Data!$D2</f>
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <f>Data!L2/Data!D2</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <f>Data!M2/Data!D2</f>
+        <f>Data!M2/Data!$D2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <f>Data!N2/Data!$D2</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <f>Data!O2/Data!$D2</f>
         <v>1</v>
       </c>
-      <c r="L2" s="4">
-        <f>Data!O2/Data!D2</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <f>Data!P2/Data!D2</f>
+      <c r="M2" s="4">
+        <f>Data!P2/Data!$D2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="8">
+        <f>Data!Q2/Data!$D2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="8">
+        <f>Data!R2/Data!$D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9">
-        <f>Data!F3/Data!D3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <f>Data!G3/Data!D3</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <f>Data!H3/Data!D3</f>
+      <c r="C3" s="4">
+        <f>Data!F3/Data!$D3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <f>Data!G3/Data!$D3</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E3" s="4">
+        <f>Data!H3/Data!$D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <f>Data!I3/Data!$D3</f>
         <v>180</v>
       </c>
-      <c r="F3" s="4">
-        <f>Data!I3/Data!D3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <f>Data!J3/Data!D3</f>
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="2">
-        <f>Data!K3/Data!D3</f>
-        <v>0.5</v>
+      <c r="G3" s="4">
+        <f>Data!J3/Data!$D3</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H3" s="4">
+        <f>Data!K3/Data!$D3</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I3" s="4">
-        <f>Data!N3/Data!D3</f>
-        <v>0</v>
+        <f>Data!L3/Data!$D3</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J3" s="4">
-        <f>Data!L3/Data!D3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <f>Data!M3/Data!D3</f>
-        <v>0</v>
+        <f>Data!M3/Data!$D3</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K3" s="4">
+        <f>Data!N3/Data!$D3</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L3" s="4">
-        <f>Data!O3/Data!D3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <f>Data!P3/Data!D3</f>
-        <v>1</v>
+        <f>Data!O3/Data!$D3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <f>Data!P3/Data!$D3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <f>Data!Q3/Data!$D3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <f>Data!R3/Data!$D3</f>
+        <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9">
-        <f>Data!F4/Data!D4</f>
+      <c r="C4" s="4">
+        <f>Data!F4/Data!$D4</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D4" s="2">
-        <f>Data!G4/Data!D4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <f>Data!H4/Data!D4</f>
+      <c r="D4" s="4">
+        <f>Data!G4/Data!$D4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <f>Data!H4/Data!$D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f>Data!I4/Data!$D4</f>
         <v>221.66666666666666</v>
       </c>
-      <c r="F4" s="4">
-        <f>Data!I4/Data!D4</f>
+      <c r="G4" s="4">
+        <f>Data!J4/Data!$D4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>Data!K4/Data!$D4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f>Data!L4/Data!$D4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f>Data!M4/Data!$D4</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G4" s="2">
-        <f>Data!J4/Data!D4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <f>Data!K4/Data!D4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <f>Data!N4/Data!D4</f>
+      <c r="K4" s="4">
+        <f>Data!N4/Data!$D4</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L4" s="4">
+        <f>Data!O4/Data!$D4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <f>Data!P4/Data!$D4</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J4" s="4">
-        <f>Data!L4/Data!D4</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="K4" s="2">
-        <f>Data!M4/Data!D4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <f>Data!O4/Data!D4</f>
+      <c r="N4" s="8">
+        <f>Data!Q4/Data!$D4</f>
         <v>1.75</v>
       </c>
-      <c r="M4" s="2">
-        <f>Data!P4/Data!D4</f>
+      <c r="O4" s="8">
+        <f>Data!R4/Data!$D4</f>
         <v>0</v>
       </c>
     </row>
@@ -2021,24 +2088,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C2">
@@ -2049,7 +2116,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E3">
@@ -2057,7 +2124,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F4">
@@ -2080,68 +2147,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="6"/>
       <c r="C2">
         <f>Refined_Data!C2</f>
         <v>0</v>
       </c>
       <c r="D2">
-        <f>Refined_Data!I2/Materials!$C$2/Materials!$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="6"/>
+        <f>Refined_Data!M2/Materials!$C$2/Materials!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
       <c r="C3">
         <f>Refined_Data!C3</f>
         <v>0</v>
       </c>
       <c r="D3">
-        <f>Refined_Data!I3/Materials!$C$2/Materials!$E$3</f>
+        <f>Refined_Data!M3/Materials!$C$2/Materials!$E$3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="6"/>
       <c r="C4">
         <f>Refined_Data!C4</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D4">
-        <f>Refined_Data!I4/Materials!$C$2/Materials!$E$3</f>
+        <f>Refined_Data!M4/Materials!$C$2/Materials!$E$3</f>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reverse1999-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D_drive_temp\Src\reverse1999-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Materials" sheetId="4" r:id="rId3"/>
     <sheet name="Account" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="9Qgwe+iXgqeEPdzgXC4D8aq857ZQCdq0/F+cK7iJmKs="/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Stage</t>
   </si>
@@ -149,22 +149,6 @@
   </si>
   <si>
     <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>arget</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>B</t>
     </r>
     <r>
@@ -299,11 +283,99 @@
     <t>Milled Magnesia(per)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy Silver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liquefied Terror</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oly Silver</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy Silver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holy Silver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oly Silver(Rough Silver Ingot)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oly Silver(Liquefied Terror)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonic Bones</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonic Bones(per)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
@@ -608,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1001"/>
+  <dimension ref="A1:T1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -621,12 +693,12 @@
     <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="2.5703125" style="2" customWidth="1"/>
-    <col min="6" max="18" width="17.140625" style="2" customWidth="1"/>
-    <col min="19" max="29" width="8.7109375" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="14.42578125" style="2"/>
+    <col min="6" max="20" width="17.140625" style="2" customWidth="1"/>
+    <col min="21" max="31" width="8.7109375" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13.5" customHeight="1">
+    <row r="1" spans="1:20" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,207 +709,286 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="2">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1460</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>180</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1260</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="5" spans="1:20" ht="13.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2">
         <v>18</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>180</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
+      <c r="D5" s="2">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2660</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>8</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>8</v>
+      </c>
+      <c r="S5" s="2">
+        <v>21</v>
+      </c>
+      <c r="T5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1260</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>4</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="13.5" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2660</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>8</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>21</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:18" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:18" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:18" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:18" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:18" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:18" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:18" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:18" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:18" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:18" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:18" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:20" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:20" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:20" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:20" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:20" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:20" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:20" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:20" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:20" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:20" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:20" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1"/>
     <row r="18" ht="13.5" customHeight="1"/>
     <row r="19" ht="13.5" customHeight="1"/>
@@ -1823,82 +1974,89 @@
     <row r="999" ht="13.5" customHeight="1"/>
     <row r="1000" ht="13.5" customHeight="1"/>
     <row r="1001" ht="13.5" customHeight="1"/>
+    <row r="1002" ht="13.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B3" numberStoredAsText="1"/>
+    <ignoredError sqref="B4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="2" customWidth="1"/>
-    <col min="3" max="15" width="21.28515625" style="2" customWidth="1"/>
+    <col min="3" max="17" width="21.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4">
         <f>Data!F2/Data!$D2</f>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D2" s="4">
         <f>Data!G2/Data!$D2</f>
@@ -1906,15 +2064,15 @@
       </c>
       <c r="E2" s="4">
         <f>Data!H2/Data!$D2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
         <f>Data!I2/Data!$D2</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
         <f>Data!J2/Data!$D2</f>
-        <v>0</v>
+        <v>243.33333333333334</v>
       </c>
       <c r="H2" s="4">
         <f>Data!K2/Data!$D2</f>
@@ -1922,7 +2080,7 @@
       </c>
       <c r="I2" s="4">
         <f>Data!L2/Data!$D2</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="J2" s="4">
         <f>Data!M2/Data!$D2</f>
@@ -1934,24 +2092,32 @@
       </c>
       <c r="L2" s="4">
         <f>Data!O2/Data!$D2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4">
         <f>Data!P2/Data!$D2</f>
         <v>0</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="4">
         <f>Data!Q2/Data!$D2</f>
         <v>0</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="4">
         <f>Data!R2/Data!$D2</f>
         <v>0</v>
       </c>
+      <c r="P2" s="4">
+        <f>Data!S2/Data!$D2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>Data!T2/Data!$D2</f>
+        <v>1.8333333333333333</v>
+      </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4">
         <f>Data!F3/Data!$D3</f>
@@ -1959,7 +2125,7 @@
       </c>
       <c r="D3" s="4">
         <f>Data!G3/Data!$D3</f>
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <f>Data!H3/Data!$D3</f>
@@ -1967,27 +2133,27 @@
       </c>
       <c r="F3" s="4">
         <f>Data!I3/Data!$D3</f>
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
         <f>Data!J3/Data!$D3</f>
-        <v>0.14285714285714285</v>
+        <v>180</v>
       </c>
       <c r="H3" s="4">
         <f>Data!K3/Data!$D3</f>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4">
         <f>Data!L3/Data!$D3</f>
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
         <f>Data!M3/Data!$D3</f>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4">
         <f>Data!N3/Data!$D3</f>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4">
         <f>Data!O3/Data!$D3</f>
@@ -1997,22 +2163,30 @@
         <f>Data!P3/Data!$D3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="4">
         <f>Data!Q3/Data!$D3</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
         <f>Data!R3/Data!$D3</f>
-        <v>0.7142857142857143</v>
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <f>Data!S3/Data!$D3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>Data!T3/Data!$D3</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
         <f>Data!F4/Data!$D4</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
         <f>Data!G4/Data!$D4</f>
@@ -2020,46 +2194,119 @@
       </c>
       <c r="E4" s="4">
         <f>Data!H4/Data!$D4</f>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F4" s="4">
         <f>Data!I4/Data!$D4</f>
-        <v>221.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
         <f>Data!J4/Data!$D4</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H4" s="4">
         <f>Data!K4/Data!$D4</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I4" s="4">
         <f>Data!L4/Data!$D4</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="J4" s="4">
         <f>Data!M4/Data!$D4</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4">
         <f>Data!N4/Data!$D4</f>
-        <v>0.16666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L4" s="4">
         <f>Data!O4/Data!$D4</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="M4" s="4">
         <f>Data!P4/Data!$D4</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="N4" s="4">
+        <f>Data!Q4/Data!$D4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <f>Data!R4/Data!$D4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <f>Data!S4/Data!$D4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>Data!T4/Data!$D4</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <f>Data!F5/Data!$D5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f>Data!G5/Data!$D5</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E5" s="4">
+        <f>Data!H5/Data!$D5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f>Data!I5/Data!$D5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <f>Data!J5/Data!$D5</f>
+        <v>221.66666666666666</v>
+      </c>
+      <c r="H5" s="4">
+        <f>Data!K5/Data!$D5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f>Data!L5/Data!$D5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <f>Data!M5/Data!$D5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <f>Data!N5/Data!$D5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <f>Data!O5/Data!$D5</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N4" s="8">
-        <f>Data!Q4/Data!$D4</f>
+      <c r="M5" s="4">
+        <f>Data!P5/Data!$D5</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N5" s="4">
+        <f>Data!Q5/Data!$D5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <f>Data!R5/Data!$D5</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P5" s="8">
+        <f>Data!S5/Data!$D5</f>
         <v>1.75</v>
       </c>
-      <c r="O4" s="8">
-        <f>Data!R4/Data!$D4</f>
+      <c r="Q5" s="8">
+        <f>Data!T5/Data!$D5</f>
         <v>0</v>
       </c>
     </row>
@@ -2072,10 +2319,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2083,30 +2330,33 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="4" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2114,20 +2364,73 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>4</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4">
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
     </row>
@@ -2139,10 +2442,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2152,9 +2455,12 @@
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
@@ -2163,54 +2469,127 @@
         <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2">
+        <f>Refined_Data!D2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>Refined_Data!J2/Materials!$C$2+Refined_Data!O2/Materials!$C$2/Materials!$F$4</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>Refined_Data!K2/Materials!$D$2+Refined_Data!Q2/Materials!$D$2/Materials!$G$5</f>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G2">
         <f>Refined_Data!C2</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>Refined_Data!M2/Materials!$C$2/Materials!$E$3</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H2">
+        <f>Refined_Data!K2/Materials!$D$3+Refined_Data!Q2/Materials!$D$3/Materials!$G$5</f>
+        <v>0.15277777777777776</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3">
+        <f>Refined_Data!D3</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>Refined_Data!J3/Materials!$C$2+Refined_Data!O3/Materials!$C$2/Materials!$F$4</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>Refined_Data!K3/Materials!$D$2+Refined_Data!Q3/Materials!$D$2/Materials!$G$5</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
         <f>Refined_Data!C3</f>
         <v>0</v>
       </c>
-      <c r="D3">
-        <f>Refined_Data!M3/Materials!$C$2/Materials!$E$3</f>
+      <c r="H3">
+        <f>Refined_Data!K3/Materials!$D$3+Refined_Data!Q3/Materials!$D$3/Materials!$G$5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4">
+        <f>Refined_Data!D4</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Refined_Data!J4/Materials!$C$2+Refined_Data!O4/Materials!$C$2/Materials!$F$4</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>Refined_Data!K4/Materials!$D$2+Refined_Data!Q4/Materials!$D$2/Materials!$G$5</f>
+        <v>0.75</v>
+      </c>
+      <c r="G4">
         <f>Refined_Data!C4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>Refined_Data!K4/Materials!$D$3+Refined_Data!Q4/Materials!$D$3/Materials!$G$5</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5">
+        <f>Refined_Data!D5</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D4">
-        <f>Refined_Data!M4/Materials!$C$2/Materials!$E$3</f>
+      <c r="D5">
+        <f>Refined_Data!J5/Materials!$C$2+Refined_Data!O5/Materials!$C$2/Materials!$F$4</f>
         <v>5.5555555555555552E-2</v>
       </c>
+      <c r="E5">
+        <f>Refined_Data!K5/Materials!$D$2+Refined_Data!Q5/Materials!$D$2/Materials!$G$5</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>Refined_Data!C5</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>Refined_Data!K5/Materials!$D$3+Refined_Data!Q5/Materials!$D$3/Materials!$G$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="D6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D_drive_temp\Src\reverse1999-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\reverse1999-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Materials" sheetId="4" r:id="rId3"/>
     <sheet name="Account" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="9Qgwe+iXgqeEPdzgXC4D8aq857ZQCdq0/F+cK7iJmKs="/>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -874,7 +874,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>1260</v>
+        <v>3060</v>
       </c>
       <c r="K4" s="2">
         <v>1</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="2">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="13.5" customHeight="1">
@@ -1989,7 +1989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="E4" s="4">
         <f>Data!H4/Data!$D4</f>
-        <v>0.2857142857142857</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="F4" s="4">
         <f>Data!I4/Data!$D4</f>
@@ -2206,11 +2206,11 @@
       </c>
       <c r="H4" s="4">
         <f>Data!K4/Data!$D4</f>
-        <v>0.14285714285714285</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="I4" s="4">
         <f>Data!L4/Data!$D4</f>
-        <v>0.14285714285714285</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="J4" s="4">
         <f>Data!M4/Data!$D4</f>
@@ -2218,15 +2218,15 @@
       </c>
       <c r="K4" s="4">
         <f>Data!N4/Data!$D4</f>
-        <v>0.5714285714285714</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="L4" s="4">
         <f>Data!O4/Data!$D4</f>
-        <v>0.14285714285714285</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="M4" s="4">
         <f>Data!P4/Data!$D4</f>
-        <v>0.14285714285714285</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="N4" s="4">
         <f>Data!Q4/Data!$D4</f>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="Q4" s="8">
         <f>Data!T4/Data!$D4</f>
-        <v>0.7142857142857143</v>
+        <v>0.70588235294117652</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2445,7 +2445,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2458,6 +2458,7 @@
     <col min="6" max="6" width="2.85546875" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2551,7 +2552,7 @@
       </c>
       <c r="E4">
         <f>Refined_Data!K4/Materials!$D$2+Refined_Data!Q4/Materials!$D$2/Materials!$G$5</f>
-        <v>0.75</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="G4">
         <f>Refined_Data!C4</f>
@@ -2559,7 +2560,7 @@
       </c>
       <c r="H4">
         <f>Refined_Data!K4/Materials!$D$3+Refined_Data!Q4/Materials!$D$3/Materials!$G$5</f>
-        <v>0.25</v>
+        <v>0.23529411764705885</v>
       </c>
     </row>
     <row r="5" spans="1:9">

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Stage</t>
   </si>
@@ -369,6 +369,70 @@
   </si>
   <si>
     <t>Estonic Bones(per)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dust</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dust(per)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clawed Pendulum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solidus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lawed Pendulum</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lawed Pendulum(Solidus)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lawed Pendulum(Rough Silver Ingot)</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1002"/>
+  <dimension ref="A1:U1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -693,12 +757,12 @@
     <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="2.5703125" style="2" customWidth="1"/>
-    <col min="6" max="20" width="17.140625" style="2" customWidth="1"/>
-    <col min="21" max="31" width="8.7109375" style="2" customWidth="1"/>
-    <col min="32" max="16384" width="14.42578125" style="2"/>
+    <col min="6" max="21" width="17.140625" style="2" customWidth="1"/>
+    <col min="22" max="32" width="8.7109375" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13.5" customHeight="1">
+    <row r="1" spans="1:21" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,37 +788,40 @@
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="13.5" customHeight="1">
+    <row r="2" spans="1:21" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -783,11 +850,11 @@
         <v>0</v>
       </c>
       <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
         <v>1</v>
       </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
       <c r="N2" s="2">
         <v>0</v>
       </c>
@@ -807,10 +874,13 @@
         <v>0</v>
       </c>
       <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="13.5" customHeight="1">
+    <row r="3" spans="1:21" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -818,31 +888,31 @@
         <v>18</v>
       </c>
       <c r="D3" s="2">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2340</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
         <v>1</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>180</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
       </c>
       <c r="N3" s="2">
         <v>0</v>
@@ -857,16 +927,19 @@
         <v>1</v>
       </c>
       <c r="R3" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S3" s="2">
         <v>0</v>
       </c>
       <c r="T3" s="2">
+        <v>9</v>
+      </c>
+      <c r="U3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="13.5" customHeight="1">
+    <row r="4" spans="1:21" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -892,25 +965,25 @@
         <v>1260</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
         <v>4</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -919,10 +992,13 @@
         <v>0</v>
       </c>
       <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="13.5" customHeight="1">
+    <row r="5" spans="1:21" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -960,35 +1036,38 @@
         <v>0</v>
       </c>
       <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
         <v>8</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>2</v>
       </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
       <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
         <v>8</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>21</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:20" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:20" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:20" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:20" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:20" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:20" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:20" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:20" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:20" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:20" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:21" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:21" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:21" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:21" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:21" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:21" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:21" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:21" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:21" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:21" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:21" ht="13.5" customHeight="1"/>
     <row r="17" ht="13.5" customHeight="1"/>
     <row r="18" ht="13.5" customHeight="1"/>
     <row r="19" ht="13.5" customHeight="1"/>
@@ -1987,20 +2066,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="2" customWidth="1"/>
-    <col min="3" max="17" width="21.28515625" style="2" customWidth="1"/>
+    <col min="3" max="18" width="21.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2020,37 +2099,40 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -2080,11 +2162,11 @@
       </c>
       <c r="I2" s="4">
         <f>Data!L2/Data!$D2</f>
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4">
         <f>Data!M2/Data!$D2</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K2" s="4">
         <f>Data!N2/Data!$D2</f>
@@ -2112,10 +2194,14 @@
       </c>
       <c r="Q2" s="4">
         <f>Data!T2/Data!$D2</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <f>Data!U2/Data!$D2</f>
         <v>1.8333333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -2133,7 +2219,7 @@
       </c>
       <c r="F3" s="4">
         <f>Data!I3/Data!$D3</f>
-        <v>1</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="G3" s="4">
         <f>Data!J3/Data!$D3</f>
@@ -2141,7 +2227,7 @@
       </c>
       <c r="H3" s="4">
         <f>Data!K3/Data!$D3</f>
-        <v>0</v>
+        <v>76.92307692307692</v>
       </c>
       <c r="I3" s="4">
         <f>Data!L3/Data!$D3</f>
@@ -2149,7 +2235,7 @@
       </c>
       <c r="J3" s="4">
         <f>Data!M3/Data!$D3</f>
-        <v>0</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K3" s="4">
         <f>Data!N3/Data!$D3</f>
@@ -2165,22 +2251,26 @@
       </c>
       <c r="N3" s="4">
         <f>Data!Q3/Data!$D3</f>
-        <v>1</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="O3" s="4">
         <f>Data!R3/Data!$D3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="P3" s="4">
         <f>Data!S3/Data!$D3</f>
         <v>0</v>
       </c>
       <c r="Q3" s="8">
         <f>Data!T3/Data!$D3</f>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="R3" s="8">
+        <f>Data!U3/Data!$D3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2206,7 +2296,7 @@
       </c>
       <c r="H4" s="4">
         <f>Data!K4/Data!$D4</f>
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4">
         <f>Data!L4/Data!$D4</f>
@@ -2214,15 +2304,15 @@
       </c>
       <c r="J4" s="4">
         <f>Data!M4/Data!$D4</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="K4" s="4">
         <f>Data!N4/Data!$D4</f>
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4">
         <f>Data!O4/Data!$D4</f>
-        <v>0.14285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M4" s="4">
         <f>Data!P4/Data!$D4</f>
@@ -2230,22 +2320,26 @@
       </c>
       <c r="N4" s="4">
         <f>Data!Q4/Data!$D4</f>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="O4" s="4">
         <f>Data!R4/Data!$D4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="4">
         <f>Data!S4/Data!$D4</f>
         <v>0</v>
       </c>
       <c r="Q4" s="8">
         <f>Data!T4/Data!$D4</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <f>Data!U4/Data!$D4</f>
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -2287,26 +2381,30 @@
       </c>
       <c r="L5" s="4">
         <f>Data!O5/Data!$D5</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
         <f>Data!P5/Data!$D5</f>
-        <v>0.16666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N5" s="4">
         <f>Data!Q5/Data!$D5</f>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O5" s="4">
         <f>Data!R5/Data!$D5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <f>Data!S5/Data!$D5</f>
         <v>0.66666666666666663</v>
-      </c>
-      <c r="P5" s="8">
-        <f>Data!S5/Data!$D5</f>
-        <v>1.75</v>
       </c>
       <c r="Q5" s="8">
         <f>Data!T5/Data!$D5</f>
+        <v>1.75</v>
+      </c>
+      <c r="R5" s="8">
+        <f>Data!U5/Data!$D5</f>
         <v>0</v>
       </c>
     </row>
@@ -2319,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2330,11 +2428,11 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="4" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
@@ -2348,33 +2446,39 @@
         <v>50</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+        <v>61</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>49</v>
       </c>
@@ -2393,44 +2497,76 @@
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="H5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
     </row>
@@ -2442,37 +2578,41 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" customWidth="1"/>
     <col min="8" max="8" width="24.42578125" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" customWidth="1"/>
+    <col min="13" max="13" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="9" t="s">
-        <v>14</v>
+      <c r="C1" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>52</v>
@@ -2483,48 +2623,61 @@
       <c r="I1" s="5" t="s">
         <v>56</v>
       </c>
+      <c r="K1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2">
-        <f>Refined_Data!D2</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>Refined_Data!J2/Materials!$C$2+Refined_Data!O2/Materials!$C$2/Materials!$F$4</f>
+        <f>Refined_Data!F2</f>
         <v>0</v>
       </c>
       <c r="E2">
-        <f>Refined_Data!K2/Materials!$D$2+Refined_Data!Q2/Materials!$D$2/Materials!$G$5</f>
-        <v>0.45833333333333331</v>
+        <f>Refined_Data!L2/Materials!$D$2+Refined_Data!R2/Materials!$D$2/Materials!$H$6</f>
+        <v>0.22916666666666666</v>
       </c>
       <c r="G2">
         <f>Refined_Data!C2</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="H2">
-        <f>Refined_Data!K2/Materials!$D$3+Refined_Data!Q2/Materials!$D$3/Materials!$G$5</f>
+        <f>Refined_Data!L2/Materials!$D$3+Refined_Data!R2/Materials!$D$3/Materials!$H$6</f>
         <v>0.15277777777777776</v>
       </c>
+      <c r="K2">
+        <f>Refined_Data!D2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>Refined_Data!K2/Materials!$C$4+Refined_Data!P2/Materials!$C$4/Materials!$G$5</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>Refined_Data!L2/Materials!$D$4+Refined_Data!R2/Materials!$D$4/Materials!$H$6</f>
+        <v>0.45833333333333331</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13">
       <c r="A3" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3">
-        <f>Refined_Data!D3</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f>Refined_Data!J3/Materials!$C$2+Refined_Data!O3/Materials!$C$2/Materials!$F$4</f>
-        <v>0</v>
+        <f>Refined_Data!F3</f>
+        <v>0.30769230769230771</v>
       </c>
       <c r="E3">
-        <f>Refined_Data!K3/Materials!$D$2+Refined_Data!Q3/Materials!$D$2/Materials!$G$5</f>
+        <f>Refined_Data!L3/Materials!$D$2+Refined_Data!R3/Materials!$D$2/Materials!$H$6</f>
         <v>0</v>
       </c>
       <c r="G3">
@@ -2532,64 +2685,92 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f>Refined_Data!K3/Materials!$D$3+Refined_Data!Q3/Materials!$D$3/Materials!$G$5</f>
+        <f>Refined_Data!L3/Materials!$D$3+Refined_Data!R3/Materials!$D$3/Materials!$H$6</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>Refined_Data!D3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>Refined_Data!K3/Materials!$C$4+Refined_Data!P3/Materials!$C$4/Materials!$G$5</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>Refined_Data!L3/Materials!$D$4+Refined_Data!R3/Materials!$D$4/Materials!$H$6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4">
-        <f>Refined_Data!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>Refined_Data!J4/Materials!$C$2+Refined_Data!O4/Materials!$C$2/Materials!$F$4</f>
+        <f>Refined_Data!F4</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>Refined_Data!K4/Materials!$D$2+Refined_Data!Q4/Materials!$D$2/Materials!$G$5</f>
-        <v>0.75</v>
+        <f>Refined_Data!L4/Materials!$D$2+Refined_Data!R4/Materials!$D$2/Materials!$H$6</f>
+        <v>0.375</v>
       </c>
       <c r="G4">
         <f>Refined_Data!C4</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>Refined_Data!K4/Materials!$D$3+Refined_Data!Q4/Materials!$D$3/Materials!$G$5</f>
+        <f>Refined_Data!L4/Materials!$D$3+Refined_Data!R4/Materials!$D$3/Materials!$H$6</f>
         <v>0.25</v>
       </c>
+      <c r="K4">
+        <f>Refined_Data!D4</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>Refined_Data!K4/Materials!$C$4+Refined_Data!P4/Materials!$C$4/Materials!$G$5</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>Refined_Data!L4/Materials!$D$4+Refined_Data!R4/Materials!$D$4/Materials!$H$6</f>
+        <v>0.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5">
+        <f>Refined_Data!F5</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>Refined_Data!L5/Materials!$D$2+Refined_Data!R5/Materials!$D$2/Materials!$H$6</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>Refined_Data!C5</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>Refined_Data!L5/Materials!$D$3+Refined_Data!R5/Materials!$D$3/Materials!$H$6</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
         <f>Refined_Data!D5</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D5">
-        <f>Refined_Data!J5/Materials!$C$2+Refined_Data!O5/Materials!$C$2/Materials!$F$4</f>
+      <c r="L5">
+        <f>Refined_Data!K5/Materials!$C$4+Refined_Data!P5/Materials!$C$4/Materials!$G$5</f>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="E5">
-        <f>Refined_Data!K5/Materials!$D$2+Refined_Data!Q5/Materials!$D$2/Materials!$G$5</f>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f>Refined_Data!C5</f>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f>Refined_Data!K5/Materials!$D$3+Refined_Data!Q5/Materials!$D$3/Materials!$G$5</f>
+      <c r="M5">
+        <f>Refined_Data!L5/Materials!$D$4+Refined_Data!R5/Materials!$D$4/Materials!$H$6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="D6" s="5"/>
+    <row r="6" spans="1:13">
+      <c r="L6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -829,43 +829,43 @@
         <v>16</v>
       </c>
       <c r="D2" s="2">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>6420</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1460</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>1</v>
       </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
       <c r="O2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
       </c>
       <c r="Q2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2" s="2">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="2">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="13.5" customHeight="1">
@@ -2068,7 +2068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="C2" s="4">
         <f>Data!F2/Data!$D2</f>
-        <v>0.33333333333333331</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="D2" s="4">
         <f>Data!G2/Data!$D2</f>
@@ -2154,27 +2154,27 @@
       </c>
       <c r="G2" s="4">
         <f>Data!J2/Data!$D2</f>
-        <v>243.33333333333334</v>
+        <v>173.51351351351352</v>
       </c>
       <c r="H2" s="4">
         <f>Data!K2/Data!$D2</f>
-        <v>0</v>
+        <v>54.054054054054056</v>
       </c>
       <c r="I2" s="4">
         <f>Data!L2/Data!$D2</f>
-        <v>0</v>
+        <v>2.7027027027027029E-2</v>
       </c>
       <c r="J2" s="4">
         <f>Data!M2/Data!$D2</f>
-        <v>0.16666666666666666</v>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="K2" s="4">
         <f>Data!N2/Data!$D2</f>
-        <v>0</v>
+        <v>2.7027027027027029E-2</v>
       </c>
       <c r="L2" s="4">
         <f>Data!O2/Data!$D2</f>
-        <v>0</v>
+        <v>2.7027027027027029E-2</v>
       </c>
       <c r="M2" s="4">
         <f>Data!P2/Data!$D2</f>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="N2" s="4">
         <f>Data!Q2/Data!$D2</f>
-        <v>0</v>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="O2" s="4">
         <f>Data!R2/Data!$D2</f>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="R2" s="4">
         <f>Data!U2/Data!$D2</f>
-        <v>1.8333333333333333</v>
+        <v>1.6486486486486487</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2581,7 +2581,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2644,15 +2644,15 @@
       </c>
       <c r="E2">
         <f>Refined_Data!L2/Materials!$D$2+Refined_Data!R2/Materials!$D$2/Materials!$H$6</f>
-        <v>0.22916666666666666</v>
+        <v>0.2195945945945946</v>
       </c>
       <c r="G2">
         <f>Refined_Data!C2</f>
-        <v>0.33333333333333331</v>
+        <v>0.35135135135135137</v>
       </c>
       <c r="H2">
         <f>Refined_Data!L2/Materials!$D$3+Refined_Data!R2/Materials!$D$3/Materials!$H$6</f>
-        <v>0.15277777777777776</v>
+        <v>0.1463963963963964</v>
       </c>
       <c r="K2">
         <f>Refined_Data!D2</f>
@@ -2660,11 +2660,11 @@
       </c>
       <c r="L2">
         <f>Refined_Data!K2/Materials!$C$4+Refined_Data!P2/Materials!$C$4/Materials!$G$5</f>
-        <v>0</v>
+        <v>9.0090090090090089E-3</v>
       </c>
       <c r="M2">
         <f>Refined_Data!L2/Materials!$D$4+Refined_Data!R2/Materials!$D$4/Materials!$H$6</f>
-        <v>0.45833333333333331</v>
+        <v>0.4391891891891892</v>
       </c>
     </row>
     <row r="3" spans="1:13">
